--- a/jour19.xlsx
+++ b/jour19.xlsx
@@ -40,121 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Germain', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Diallo']</t>
-  </si>
-  <si>
-    <t>['Bain']</t>
-  </si>
-  <si>
-    <t>['Boyer']</t>
+    <t>['H.Diallo', 'Mothiba', 'Delaine']</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Lemarechal', 'Del_Castillo', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Talbi', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Serrano', 'Aguilar', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Mendes']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Moalida', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Andre']</t>
+    <t>['Munetsi', 'Moalida']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Coco', 'Coco', 'Blas']</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>['Martin']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Harit']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'Aboukhlal']</t>
   </si>
   <si>
     <t>['Tagliafico']</t>
   </si>
   <si>
-    <t>['Mollet', 'Guessand', 'Girotto']</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>['Bryan']</t>
-  </si>
-  <si>
-    <t>['Ratao']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Ramos', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Bamba', 'Mendy']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Le_Douaron']</t>
+    <t>['Gastien']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Wahi', 'Khazri', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Autret']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Dante', 'Bryan']</t>
   </si>
 </sst>
 </file>
@@ -549,25 +549,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -578,28 +578,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,28 +607,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,25 +636,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -665,28 +665,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -700,22 +700,22 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,25 +726,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,25 +755,25 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,28 +781,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,25 +813,25 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour19.xlsx
+++ b/jour19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['H.Diallo', 'Mothiba', 'Delaine']</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Lebas']</t>
-  </si>
-  <si>
-    <t>['Lemarechal', 'Del_Castillo', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Serrano', 'Aguilar', 'Jakobs']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Mendes']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Moalida']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Coco', 'Blas']</t>
+    <t>['Massolin', 'Rajot', 'Wieteska']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Flips']</t>
+  </si>
+  <si>
+    <t>['Cherki', 'Cherki', 'Lega', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Beka', 'Pepe']</t>
+  </si>
+  <si>
+    <t>['Valencia']</t>
+  </si>
+  <si>
+    <t>['Merdji', 'Lipinski', 'Lipinski']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Michelin']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen', 'Healey']</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>['Martin']</t>
-  </si>
-  <si>
-    <t>['Majer', 'Santamaria']</t>
-  </si>
-  <si>
-    <t>['Harit']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Gastien']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Wahi', 'Khazri', 'Maouassa']</t>
-  </si>
-  <si>
-    <t>['Autret']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Dante', 'Bryan']</t>
+    <t>['Castelletto', 'Coco', 'Castelletto', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Ramos']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Porozo', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Rodon', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Silva', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Le_Douaron', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Corduan', 'Corduan']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'Cabella', 'David', 'Gomes']</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -590,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -599,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -628,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -665,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,19 +677,19 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -694,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,19 +706,19 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -723,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,19 +735,19 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -764,16 +767,16 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,19 +793,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -810,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -819,19 +822,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/jour19.xlsx
+++ b/jour19.xlsx
@@ -40,61 +40,82 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Massolin', 'Rajot', 'Wieteska']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Flips']</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Cherki', 'Lega', 'Caqueret']</t>
-  </si>
-  <si>
-    <t>['Pepe', 'Beka', 'Pepe']</t>
-  </si>
-  <si>
-    <t>['Valencia']</t>
-  </si>
-  <si>
-    <t>['Merdji', 'Lipinski', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Michelin']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen', 'Healey']</t>
+    <t>['Flips', 'Moalida', 'Balogin']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Versini']</t>
+  </si>
+  <si>
+    <t>['Bercola', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Roure']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Majer']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Chardonnet', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['H.Diallo']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>OL</t>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Ajaccio</t>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Toulouse</t>
@@ -103,61 +124,40 @@
     <t>Nantes</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>['Castelletto', 'Coco', 'Castelletto', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Ramos']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Sainte-Luce']</t>
-  </si>
-  <si>
-    <t>['Porozo', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Rodon', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Matsima', 'Silva', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Mounie']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Corduan']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Cabella', 'David', 'Gomes']</t>
+    <t>['David']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Pereira']</t>
+  </si>
+  <si>
+    <t>['Dante', 'Moffi', 'Attal', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['Maripan', 'Pele']</t>
+  </si>
+  <si>
+    <t>['Sakho']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Onaiwu', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Guessand']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Kabore', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Doumbia']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,15 +805,15 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour19.xlsx
+++ b/jour19.xlsx
@@ -40,31 +40,31 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Flips', 'Moalida', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Versini']</t>
-  </si>
-  <si>
-    <t>['Bercola', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Roure']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Majer']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['H.Diallo']</t>
+    <t>['Balogin', 'Munetsi', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>['Varane', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Brahimi', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Coco', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Cherki', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Santamaria']</t>
   </si>
   <si>
     <t>[]</t>
@@ -73,91 +73,91 @@
     <t>Reims</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['David']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Pereira']</t>
-  </si>
-  <si>
-    <t>['Dante', 'Moffi', 'Attal', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Sakho']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Guessand']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Kabore', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Doumbia']</t>
+    <t>['Embolo', 'Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Brassier', 'Brassier', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Sima', 'Camara', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Nordin']</t>
+  </si>
+  <si>
+    <t>['Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Lienard', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Pellenard', 'Merdji']</t>
+  </si>
+  <si>
+    <t>['Desler', 'Onaiwu', 'Aboukhlal', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Roure', 'Roure', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Borges', 'Maurer', 'Versini']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +573,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,12 +602,12 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,12 +631,12 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,12 +660,12 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,15 +776,15 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/jour19.xlsx
+++ b/jour19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Flips', 'Moalida', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Versini']</t>
-  </si>
-  <si>
-    <t>['Bercola', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Roure']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Majer']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['H.Diallo']</t>
+    <t>['Caqueret', 'Caqueret', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Ben_Seguir', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Le_Douaron', 'Chardonnet', 'Duverne']</t>
+  </si>
+  <si>
+    <t>['Serhuis', 'Flips']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Bain']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>['Bayo', 'Massolin']</t>
+  </si>
+  <si>
+    <t>['Gonzalez']</t>
+  </si>
+  <si>
+    <t>['Gameiro']</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
+    <t>Angers</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
+    <t>OM</t>
+  </si>
+  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['David']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Pereira']</t>
-  </si>
-  <si>
-    <t>['Dante', 'Moffi', 'Attal', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Sakho']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Guessand']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Kabore', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Doumbia']</t>
+    <t>['Girotto', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Beka']</t>
+  </si>
+  <si>
+    <t>['Yoro']</t>
+  </si>
+  <si>
+    <t>['Assignon', 'Terrier', 'Wooh']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Dallinga']</t>
+  </si>
+  <si>
+    <t>['Soler', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Germain', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Ounahi', 'Bailly', 'Clauss']</t>
+  </si>
+  <si>
+    <t>['Chavalerin', 'Palaversa', 'Palaversa', 'Ugbo']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -564,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,15 +570,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +587,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +599,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -622,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,15 +628,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +657,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -694,10 +691,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -718,7 +715,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,27 +732,27 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -767,24 +764,24 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -802,7 +799,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -810,7 +807,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -822,19 +819,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour19.xlsx
+++ b/jour19.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,31 +43,34 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Brahimi', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Zeneli']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Healey']</t>
-  </si>
-  <si>
-    <t>['Khazri']</t>
-  </si>
-  <si>
-    <t>['Borges']</t>
-  </si>
-  <si>
-    <t>['Soler', 'Sanches', 'Mbappe']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['Merdji']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Beka', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Pele', 'Embolo']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Wooh', 'Wooh']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Girotto']</t>
+  </si>
+  <si>
+    <t>['Fortes']</t>
   </si>
   <si>
     <t>[]</t>
@@ -73,91 +79,88 @@
     <t>Nice</t>
   </si>
   <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Clermont</t>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['Tagliafico']</t>
-  </si>
-  <si>
-    <t>['David']</t>
-  </si>
-  <si>
-    <t>['Castelletto', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Delaine']</t>
-  </si>
-  <si>
-    <t>['Pelon']</t>
-  </si>
-  <si>
-    <t>['Valencia']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Porozo', 'Lopez', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Payet', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Roure', 'Vidal']</t>
-  </si>
-  <si>
-    <t>['Camara']</t>
+    <t>['Le_Goff', 'Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Gigot']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Porozo', 'Salmier', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Moalida']</t>
+  </si>
+  <si>
+    <t>['Sima']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Autret', 'Dembele']</t>
+  </si>
+  <si>
+    <t>['Lienard', 'Sanson']</t>
+  </si>
+  <si>
+    <t>['Ramos', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Burlet']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +549,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
+      <c r="G4">
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
       <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
